--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D97BFA9-DF46-4BAE-9993-D79D3A8FCE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1290" windowWidth="24765" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="1290" windowWidth="24765" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="SoESCaOMCbIC-fixedOM" sheetId="6" r:id="rId5"/>
     <sheet name="SoESCaOMCbIC-variableOM" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1363,7 +1362,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2387,26 +2386,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.86328125" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="65.73046875" customWidth="1"/>
+    <col min="5" max="5" width="5.73046875" customWidth="1"/>
+    <col min="6" max="6" width="63.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="74" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="74" t="s">
         <v>226</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>227</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="83">
         <v>2018</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>228</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="68" t="s">
         <v>229</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>230</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="82" t="s">
         <v>342</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>227</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="83">
         <v>2019</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>302</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="68" t="s">
         <v>301</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>303</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="82" t="s">
         <v>238</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>227</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="83">
         <v>2016</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B20" s="115" t="s">
         <v>239</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" s="117" t="s">
         <v>114</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>345</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="82" t="s">
         <v>343</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>227</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="83">
         <v>2016</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>344</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="68" t="s">
         <v>270</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>303</v>
       </c>
@@ -2677,81 +2676,81 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="74" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D14" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
+    <hyperlink ref="F28" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="F21" r:id="rId9"/>
+    <hyperlink ref="B28" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D28" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="74" t="s">
         <v>205</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -2887,7 +2886,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -2895,7 +2894,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>149</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>154</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -3053,28 +3052,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A319" sqref="A319:A381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.59765625" customWidth="1"/>
+    <col min="6" max="6" width="60.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.1328125" customWidth="1"/>
+    <col min="11" max="11" width="74.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
@@ -3084,7 +3083,7 @@
       <c r="E1" s="124"/>
       <c r="F1" s="125"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3115,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>159</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>160</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>162</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>163</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>164</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>165</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>166</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="59" t="s">
         <v>167</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -3346,7 +3345,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>272</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="91" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17" t="s">
         <v>273</v>
       </c>
@@ -3390,8 +3389,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="1:6" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="119" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3400,7 @@
       <c r="E18" s="121"/>
       <c r="F18" s="122"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3433,7 +3432,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>252</v>
       </c>
@@ -3443,7 +3442,7 @@
       <c r="E21" s="94"/>
       <c r="F21" s="68"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>274</v>
       </c>
@@ -3463,7 +3462,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>275</v>
       </c>
@@ -3483,7 +3482,7 @@
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>276</v>
       </c>
@@ -3503,7 +3502,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>277</v>
       </c>
@@ -3523,7 +3522,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>278</v>
       </c>
@@ -3535,7 +3534,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="E27" s="94"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="20" t="s">
         <v>243</v>
       </c>
@@ -3555,7 +3554,7 @@
       <c r="E28" s="94"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="20" t="s">
         <v>279</v>
       </c>
@@ -3575,7 +3574,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="20" t="s">
         <v>280</v>
       </c>
@@ -3595,7 +3594,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="20" t="s">
         <v>281</v>
       </c>
@@ -3615,7 +3614,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="20" t="s">
         <v>282</v>
       </c>
@@ -3635,7 +3634,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="20" t="s">
         <v>283</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="E33" s="94"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="20" t="s">
         <v>246</v>
       </c>
@@ -3657,7 +3656,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="20" t="s">
         <v>284</v>
       </c>
@@ -3677,7 +3676,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="20" t="s">
         <v>285</v>
       </c>
@@ -3697,7 +3696,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="20" t="s">
         <v>251</v>
       </c>
@@ -3717,7 +3716,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="20" t="s">
         <v>286</v>
       </c>
@@ -3737,7 +3736,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="20" t="s">
         <v>287</v>
       </c>
@@ -3757,7 +3756,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="20" t="s">
         <v>288</v>
       </c>
@@ -3769,7 +3768,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="20" t="s">
         <v>289</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="20" t="s">
         <v>290</v>
       </c>
@@ -3789,7 +3788,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="20" t="s">
         <v>291</v>
       </c>
@@ -3809,7 +3808,7 @@
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="20" t="s">
         <v>292</v>
       </c>
@@ -3829,7 +3828,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="20" t="s">
         <v>293</v>
       </c>
@@ -3849,7 +3848,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="20" t="s">
         <v>294</v>
       </c>
@@ -3869,7 +3868,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="20" t="s">
         <v>295</v>
       </c>
@@ -3889,7 +3888,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="20" t="s">
         <v>296</v>
       </c>
@@ -3909,7 +3908,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="20" t="s">
         <v>297</v>
       </c>
@@ -3921,7 +3920,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="20" t="s">
         <v>298</v>
       </c>
@@ -3933,7 +3932,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="20" t="s">
         <v>299</v>
       </c>
@@ -3945,7 +3944,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="20" t="s">
         <v>300</v>
       </c>
@@ -3965,7 +3964,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="70" t="s">
         <v>11</v>
       </c>
@@ -3977,7 +3976,7 @@
       <c r="E53" s="61"/>
       <c r="F53" s="75"/>
     </row>
-    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +3986,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -3997,7 +3996,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="20" t="s">
         <v>304</v>
       </c>
@@ -4007,7 +4006,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="20" t="s">
         <v>305</v>
       </c>
@@ -4027,7 +4026,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="20" t="s">
         <v>306</v>
       </c>
@@ -4047,7 +4046,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="20" t="s">
         <v>307</v>
       </c>
@@ -4067,7 +4066,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="20" t="s">
         <v>308</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="20" t="s">
         <v>309</v>
       </c>
@@ -4109,7 +4108,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="20" t="s">
         <v>310</v>
       </c>
@@ -4129,7 +4128,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="20" t="s">
         <v>311</v>
       </c>
@@ -4149,7 +4148,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="20" t="s">
         <v>312</v>
       </c>
@@ -4169,7 +4168,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="20" t="s">
         <v>313</v>
       </c>
@@ -4189,7 +4188,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="20" t="s">
         <v>314</v>
       </c>
@@ -4209,7 +4208,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="20" t="s">
         <v>315</v>
       </c>
@@ -4229,7 +4228,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="20" t="s">
         <v>316</v>
       </c>
@@ -4249,7 +4248,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="20" t="s">
         <v>317</v>
       </c>
@@ -4261,7 +4260,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4281,7 +4280,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="20" t="s">
         <v>318</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="24" t="s">
         <v>319</v>
       </c>
@@ -4305,8 +4304,8 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="123" t="s">
         <v>12</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="E75" s="126"/>
       <c r="F75" s="125"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4377,7 +4376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -4507,7 +4506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="31" t="s">
         <v>25</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="32" t="s">
         <v>28</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -4723,7 +4722,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -4736,7 +4735,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -4746,7 +4745,7 @@
       <c r="E99" s="39"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="40" t="s">
         <v>20</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="40" t="s">
         <v>36</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="40" t="s">
         <v>37</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="42" t="s">
         <v>35</v>
       </c>
@@ -4825,7 +4824,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -4835,7 +4834,7 @@
       <c r="E104" s="39"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="40" t="s">
         <v>39</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="40" t="s">
         <v>40</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="40" t="s">
         <v>29</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="42" t="s">
         <v>35</v>
       </c>
@@ -4914,8 +4913,8 @@
       <c r="E108" s="45"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="123" t="s">
         <v>41</v>
       </c>
@@ -4925,7 +4924,7 @@
       <c r="E110" s="126"/>
       <c r="F110" s="125"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -4957,12 +4956,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5134,7 +5133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="31" t="s">
         <v>25</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5182,7 +5181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="32" t="s">
         <v>28</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5304,7 +5303,7 @@
       <c r="E131" s="77"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="31" t="s">
         <v>49</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="49" t="s">
         <v>50</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="40" t="s">
         <v>20</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="40" t="s">
         <v>36</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="40" t="s">
         <v>37</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="42" t="s">
         <v>35</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5436,7 +5435,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="40" t="s">
         <v>51</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="40" t="s">
         <v>40</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="40" t="s">
         <v>29</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
@@ -5515,8 +5514,8 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="119" t="s">
         <v>52</v>
       </c>
@@ -5526,7 +5525,7 @@
       <c r="E145" s="121"/>
       <c r="F145" s="122"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -5558,7 +5557,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -5568,7 +5567,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A158" s="59" t="s">
         <v>11</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -5787,7 +5786,7 @@
       <c r="E159" s="62"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A160" s="63" t="s">
         <v>65</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -5819,7 +5818,7 @@
       <c r="E161" s="62"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -5841,8 +5840,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="119" t="s">
         <v>71</v>
       </c>
@@ -5852,7 +5851,7 @@
       <c r="E164" s="121"/>
       <c r="F164" s="122"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -5884,7 +5883,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="65" t="s">
         <v>72</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6079,7 +6078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A202" s="59" t="s">
         <v>11</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A215" s="59" t="s">
         <v>112</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -6805,7 +6804,7 @@
       <c r="E216" s="62"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A217" s="100" t="s">
         <v>323</v>
       </c>
@@ -6827,8 +6826,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="219" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="119" t="s">
         <v>241</v>
       </c>
@@ -6838,7 +6837,7 @@
       <c r="E219" s="121"/>
       <c r="F219" s="122"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -6870,7 +6869,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -6914,7 +6913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A227" s="70" t="s">
         <v>119</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7012,7 +7011,7 @@
       <c r="E228" s="62"/>
       <c r="F228" s="54"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7044,7 +7043,7 @@
       <c r="E230" s="62"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7110,8 +7109,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="235" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="119" t="s">
         <v>242</v>
       </c>
@@ -7121,7 +7120,7 @@
       <c r="E235" s="121"/>
       <c r="F235" s="122"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7153,7 +7152,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="87" t="s">
         <v>243</v>
       </c>
@@ -7163,7 +7162,7 @@
       <c r="E238" s="21"/>
       <c r="F238" s="58"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" s="87" t="s">
         <v>244</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="87" t="s">
         <v>245</v>
       </c>
@@ -7197,7 +7196,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="87" t="s">
         <v>246</v>
       </c>
@@ -7207,7 +7206,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="87" t="s">
         <v>247</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="87" t="s">
         <v>248</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" s="40" t="s">
         <v>249</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" s="87" t="s">
         <v>250</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A246" s="40" t="s">
         <v>251</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A247" s="7" t="s">
         <v>245</v>
       </c>
@@ -7329,7 +7328,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7341,7 +7340,7 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A249" s="7" t="s">
         <v>252</v>
       </c>
@@ -7351,7 +7350,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A250" s="87" t="s">
         <v>253</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A251" s="87" t="s">
         <v>254</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A252" s="87" t="s">
         <v>255</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A253" s="87" t="s">
         <v>256</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A254" s="87" t="s">
         <v>257</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A255" s="87" t="s">
         <v>258</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A256" s="87" t="s">
         <v>259</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A257" s="87" t="s">
         <v>260</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A258" s="87" t="s">
         <v>261</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A259" s="87" t="s">
         <v>262</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A260" s="87" t="s">
         <v>263</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A261" s="87" t="s">
         <v>264</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A262" s="87" t="s">
         <v>265</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A263" s="87" t="s">
         <v>76</v>
       </c>
@@ -7649,7 +7648,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A264" s="87" t="s">
         <v>25</v>
       </c>
@@ -7659,7 +7658,7 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A265" s="87" t="s">
         <v>266</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A266" s="87" t="s">
         <v>267</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A267" s="87" t="s">
         <v>268</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A268" s="87" t="s">
         <v>76</v>
       </c>
@@ -7737,7 +7736,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A269" s="87" t="s">
         <v>103</v>
       </c>
@@ -7749,7 +7748,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A270" s="87" t="s">
         <v>269</v>
       </c>
@@ -7759,7 +7758,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A271" s="89" t="s">
         <v>11</v>
       </c>
@@ -7769,7 +7768,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A272" s="102" t="s">
         <v>8</v>
       </c>
@@ -7779,7 +7778,7 @@
       <c r="E272" s="103"/>
       <c r="F272" s="104"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273" s="105" t="s">
         <v>304</v>
       </c>
@@ -7789,7 +7788,7 @@
       <c r="E273" s="62"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274" s="87" t="s">
         <v>330</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275" s="87" t="s">
         <v>306</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276" s="87" t="s">
         <v>331</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277" s="87" t="s">
         <v>332</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A278" s="87" t="s">
         <v>329</v>
       </c>
@@ -7889,7 +7888,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A279" s="87" t="s">
         <v>105</v>
       </c>
@@ -7899,7 +7898,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A280" s="87" t="s">
         <v>333</v>
       </c>
@@ -7919,7 +7918,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A281" s="87" t="s">
         <v>334</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A282" s="87" t="s">
         <v>335</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A283" s="87" t="s">
         <v>312</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A284" s="87" t="s">
         <v>314</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A285" s="87" t="s">
         <v>336</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A286" s="87" t="s">
         <v>337</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A287" s="87" t="s">
         <v>317</v>
       </c>
@@ -8063,7 +8062,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A288" s="89" t="s">
         <v>11</v>
       </c>
@@ -8075,7 +8074,7 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A289" s="119" t="s">
         <v>352</v>
       </c>
@@ -8085,7 +8084,7 @@
       <c r="E289" s="121"/>
       <c r="F289" s="122"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A290" s="96" t="s">
         <v>1</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8117,7 +8116,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292" s="90" t="s">
         <v>353</v>
       </c>
@@ -8127,7 +8126,7 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293" s="87" t="s">
         <v>354</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294" s="87" t="s">
         <v>355</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295" s="87" t="s">
         <v>356</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296" s="87" t="s">
         <v>357</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A297" s="87" t="s">
         <v>358</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A298" s="87" t="s">
         <v>359</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A299" s="87" t="s">
         <v>360</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A300" s="87" t="s">
         <v>361</v>
       </c>
@@ -8303,7 +8302,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A301" s="87" t="s">
         <v>362</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A302" s="90" t="s">
         <v>363</v>
       </c>
@@ -8335,7 +8334,7 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A303" s="87" t="s">
         <v>364</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A304" s="87" t="s">
         <v>365</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A305" s="87" t="s">
         <v>366</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A306" s="88" t="s">
         <v>367</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8433,7 +8432,7 @@
       <c r="E307" s="62"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A308" s="111" t="s">
         <v>65</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A309" s="111" t="s">
         <v>373</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A310" s="111" t="s">
         <v>374</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A311" s="112" t="s">
         <v>375</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -8531,7 +8530,7 @@
       <c r="E312" s="62"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A313" s="114" t="s">
         <v>371</v>
       </c>
@@ -8553,12 +8552,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B314" s="85"/>
       <c r="C314" s="84"/>
       <c r="D314" s="107"/>
     </row>
-    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A315" s="119" t="s">
         <v>380</v>
       </c>
@@ -8568,7 +8567,7 @@
       <c r="E315" s="121"/>
       <c r="F315" s="122"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A316" s="96" t="s">
         <v>1</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8600,7 +8599,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A318" s="20" t="s">
         <v>381</v>
       </c>
@@ -8610,7 +8609,7 @@
       <c r="E318" s="94"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A319" s="20" t="s">
         <v>382</v>
       </c>
@@ -8630,7 +8629,7 @@
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A320" s="20" t="s">
         <v>383</v>
       </c>
@@ -8650,7 +8649,7 @@
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A321" s="20" t="s">
         <v>384</v>
       </c>
@@ -8670,7 +8669,7 @@
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A322" s="20" t="s">
         <v>385</v>
       </c>
@@ -8690,7 +8689,7 @@
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A323" s="20" t="s">
         <v>386</v>
       </c>
@@ -8710,7 +8709,7 @@
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A324" s="20" t="s">
         <v>387</v>
       </c>
@@ -8722,7 +8721,7 @@
       <c r="E324" s="94"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A325" s="20" t="s">
         <v>388</v>
       </c>
@@ -8732,7 +8731,7 @@
       <c r="E325" s="94"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A326" s="20" t="s">
         <v>389</v>
       </c>
@@ -8752,7 +8751,7 @@
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A327" s="20" t="s">
         <v>390</v>
       </c>
@@ -8772,7 +8771,7 @@
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A328" s="20" t="s">
         <v>391</v>
       </c>
@@ -8792,7 +8791,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A329" s="20" t="s">
         <v>392</v>
       </c>
@@ -8812,7 +8811,7 @@
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330" s="20" t="s">
         <v>393</v>
       </c>
@@ -8832,7 +8831,7 @@
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331" s="20" t="s">
         <v>394</v>
       </c>
@@ -8852,7 +8851,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332" s="20" t="s">
         <v>395</v>
       </c>
@@ -8872,7 +8871,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A333" s="20" t="s">
         <v>396</v>
       </c>
@@ -8884,7 +8883,7 @@
       <c r="E333" s="94"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A334" s="20" t="s">
         <v>397</v>
       </c>
@@ -8894,7 +8893,7 @@
       <c r="E334" s="94"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A335" s="20" t="s">
         <v>284</v>
       </c>
@@ -8914,7 +8913,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A336" s="20" t="s">
         <v>398</v>
       </c>
@@ -8934,7 +8933,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A337" s="20" t="s">
         <v>399</v>
       </c>
@@ -8954,7 +8953,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A338" s="20" t="s">
         <v>400</v>
       </c>
@@ -8974,7 +8973,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A339" s="20" t="s">
         <v>401</v>
       </c>
@@ -8994,7 +8993,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A340" s="20" t="s">
         <v>286</v>
       </c>
@@ -9014,7 +9013,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A341" s="20" t="s">
         <v>402</v>
       </c>
@@ -9026,7 +9025,7 @@
       <c r="E341" s="94"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A342" s="20" t="s">
         <v>403</v>
       </c>
@@ -9036,7 +9035,7 @@
       <c r="E342" s="94"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A343" s="20" t="s">
         <v>404</v>
       </c>
@@ -9056,7 +9055,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A344" s="20" t="s">
         <v>405</v>
       </c>
@@ -9066,7 +9065,7 @@
       <c r="E344" s="94"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A345" s="20" t="s">
         <v>293</v>
       </c>
@@ -9086,7 +9085,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A346" s="20" t="s">
         <v>294</v>
       </c>
@@ -9106,7 +9105,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A347" s="20" t="s">
         <v>406</v>
       </c>
@@ -9126,7 +9125,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A348" s="20" t="s">
         <v>407</v>
       </c>
@@ -9146,7 +9145,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A349" s="20" t="s">
         <v>296</v>
       </c>
@@ -9166,7 +9165,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350" s="20" t="s">
         <v>408</v>
       </c>
@@ -9186,7 +9185,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351" s="20" t="s">
         <v>409</v>
       </c>
@@ -9206,7 +9205,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352" s="20" t="s">
         <v>410</v>
       </c>
@@ -9226,7 +9225,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A353" s="20" t="s">
         <v>411</v>
       </c>
@@ -9246,7 +9245,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A354" s="20" t="s">
         <v>412</v>
       </c>
@@ -9258,7 +9257,7 @@
       <c r="E354" s="94"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A355" s="20" t="s">
         <v>413</v>
       </c>
@@ -9268,7 +9267,7 @@
       <c r="E355" s="94"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A356" s="20" t="s">
         <v>414</v>
       </c>
@@ -9288,7 +9287,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A357" s="20" t="s">
         <v>415</v>
       </c>
@@ -9308,7 +9307,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A358" s="20" t="s">
         <v>416</v>
       </c>
@@ -9328,7 +9327,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A359" s="20" t="s">
         <v>417</v>
       </c>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A360" s="20" t="s">
         <v>418</v>
       </c>
@@ -9360,7 +9359,7 @@
       <c r="E360" s="94"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A361" s="20" t="s">
         <v>419</v>
       </c>
@@ -9380,7 +9379,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A362" s="20" t="s">
         <v>420</v>
       </c>
@@ -9392,7 +9391,7 @@
       <c r="E362" s="94"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A363" s="20" t="s">
         <v>300</v>
       </c>
@@ -9412,7 +9411,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A364" s="70" t="s">
         <v>421</v>
       </c>
@@ -9424,7 +9423,7 @@
       <c r="E364" s="99"/>
       <c r="F364" s="75"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9434,7 +9433,7 @@
       <c r="E365" s="62"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9444,7 +9443,7 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A367" s="20" t="s">
         <v>423</v>
       </c>
@@ -9464,7 +9463,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A368" s="20" t="s">
         <v>424</v>
       </c>
@@ -9484,7 +9483,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A369" s="20" t="s">
         <v>425</v>
       </c>
@@ -9504,7 +9503,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A370" s="20" t="s">
         <v>286</v>
       </c>
@@ -9524,7 +9523,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A371" s="20" t="s">
         <v>426</v>
       </c>
@@ -9536,7 +9535,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -9546,7 +9545,7 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A373" s="20" t="s">
         <v>427</v>
       </c>
@@ -9566,7 +9565,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A374" s="20" t="s">
         <v>428</v>
       </c>
@@ -9586,7 +9585,7 @@
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A375" s="20" t="s">
         <v>429</v>
       </c>
@@ -9606,7 +9605,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A376" s="20" t="s">
         <v>430</v>
       </c>
@@ -9626,7 +9625,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A377" s="20" t="s">
         <v>431</v>
       </c>
@@ -9646,7 +9645,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A378" s="20" t="s">
         <v>432</v>
       </c>
@@ -9658,7 +9657,7 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A379" s="20" t="s">
         <v>420</v>
       </c>
@@ -9670,7 +9669,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A380" s="20" t="s">
         <v>300</v>
       </c>
@@ -9690,7 +9689,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A381" s="24" t="s">
         <v>433</v>
       </c>
@@ -9719,74 +9718,74 @@
     <mergeCell ref="A164:F164"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Expenditures" error="Expenditures must be a number that is greater than or equal to zero." sqref="B17" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Expenditures" error="Expenditures must be a number that is greater than or equal to zero." sqref="B17">
       <formula1>0</formula1>
       <formula2>9000000000000000000</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F78" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F100" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F101" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="F102" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="F105" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="F106" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F107" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="F140:F142" r:id="rId8" display="https://www.nrel.gov/analysis/jedi/natural-gas.html" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F150" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="F151:F158" r:id="rId10" display="https://www.world-nuclear.org/information-library/economic-aspects/economics-of-nuclear-power.aspx" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F160" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="F162" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="F167" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="F202" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="F203:F215" r:id="rId15" display="https://www.nrel.gov/analysis/jedi/conventional-hydro.html" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="F229" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="F231" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="F232" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="F233" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="F222:F227" r:id="rId20" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="F4" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="F5:F13" r:id="rId22" display="https://www.nrel.gov/docs/fy19osti/72399.pdf, Figure 28" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="F239" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="F242" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="F243" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="F244" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="F245" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="F246" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="F250" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="F251" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="F252" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="F253" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="F254" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="F255" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="F256" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="F257" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="F258" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="F259" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="F260" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="F261" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="F262" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="F265" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="F266" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="F267" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="F15:F16" r:id="rId45" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="F217" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="F274" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="F275" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="F276" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="F277" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="F281" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="F284" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="F285" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="F286" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="F282:F283" r:id="rId55" display="https://www.nrel.gov/analysis/jedi/csp.html" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="F293:F301" r:id="rId56" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="F303:F306" r:id="rId57" display="https://www.nrel.gov/analysis/jedi/international.html" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="F308" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="F309" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="F310" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="F311" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="F313" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="F78" r:id="rId1"/>
+    <hyperlink ref="F100" r:id="rId2"/>
+    <hyperlink ref="F101" r:id="rId3"/>
+    <hyperlink ref="F102" r:id="rId4"/>
+    <hyperlink ref="F105" r:id="rId5"/>
+    <hyperlink ref="F106" r:id="rId6"/>
+    <hyperlink ref="F107" r:id="rId7"/>
+    <hyperlink ref="F140:F142" r:id="rId8" display="https://www.nrel.gov/analysis/jedi/natural-gas.html"/>
+    <hyperlink ref="F150" r:id="rId9"/>
+    <hyperlink ref="F151:F158" r:id="rId10" display="https://www.world-nuclear.org/information-library/economic-aspects/economics-of-nuclear-power.aspx"/>
+    <hyperlink ref="F160" r:id="rId11"/>
+    <hyperlink ref="F162" r:id="rId12"/>
+    <hyperlink ref="F167" r:id="rId13"/>
+    <hyperlink ref="F202" r:id="rId14"/>
+    <hyperlink ref="F203:F215" r:id="rId15" display="https://www.nrel.gov/analysis/jedi/conventional-hydro.html"/>
+    <hyperlink ref="F229" r:id="rId16"/>
+    <hyperlink ref="F231" r:id="rId17"/>
+    <hyperlink ref="F232" r:id="rId18"/>
+    <hyperlink ref="F233" r:id="rId19"/>
+    <hyperlink ref="F222:F227" r:id="rId20" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F4" r:id="rId21"/>
+    <hyperlink ref="F5:F13" r:id="rId22" display="https://www.nrel.gov/docs/fy19osti/72399.pdf, Figure 28"/>
+    <hyperlink ref="F239" r:id="rId23"/>
+    <hyperlink ref="F242" r:id="rId24"/>
+    <hyperlink ref="F243" r:id="rId25"/>
+    <hyperlink ref="F244" r:id="rId26"/>
+    <hyperlink ref="F245" r:id="rId27"/>
+    <hyperlink ref="F246" r:id="rId28"/>
+    <hyperlink ref="F250" r:id="rId29"/>
+    <hyperlink ref="F251" r:id="rId30"/>
+    <hyperlink ref="F252" r:id="rId31"/>
+    <hyperlink ref="F253" r:id="rId32"/>
+    <hyperlink ref="F254" r:id="rId33"/>
+    <hyperlink ref="F255" r:id="rId34"/>
+    <hyperlink ref="F256" r:id="rId35"/>
+    <hyperlink ref="F257" r:id="rId36"/>
+    <hyperlink ref="F258" r:id="rId37"/>
+    <hyperlink ref="F259" r:id="rId38"/>
+    <hyperlink ref="F260" r:id="rId39"/>
+    <hyperlink ref="F261" r:id="rId40"/>
+    <hyperlink ref="F262" r:id="rId41"/>
+    <hyperlink ref="F265" r:id="rId42"/>
+    <hyperlink ref="F266" r:id="rId43"/>
+    <hyperlink ref="F267" r:id="rId44"/>
+    <hyperlink ref="F15:F16" r:id="rId45" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F217" r:id="rId46"/>
+    <hyperlink ref="F274" r:id="rId47"/>
+    <hyperlink ref="F275" r:id="rId48"/>
+    <hyperlink ref="F276" r:id="rId49"/>
+    <hyperlink ref="F277" r:id="rId50"/>
+    <hyperlink ref="F281" r:id="rId51"/>
+    <hyperlink ref="F284" r:id="rId52"/>
+    <hyperlink ref="F285" r:id="rId53"/>
+    <hyperlink ref="F286" r:id="rId54"/>
+    <hyperlink ref="F282:F283" r:id="rId55" display="https://www.nrel.gov/analysis/jedi/csp.html"/>
+    <hyperlink ref="F293:F301" r:id="rId56" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F303:F306" r:id="rId57" display="https://www.nrel.gov/analysis/jedi/international.html"/>
+    <hyperlink ref="F308" r:id="rId58"/>
+    <hyperlink ref="F309" r:id="rId59"/>
+    <hyperlink ref="F310" r:id="rId60"/>
+    <hyperlink ref="F311" r:id="rId61"/>
+    <hyperlink ref="F313" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId63"/>
@@ -9794,36 +9793,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AK10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>169</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -10082,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -10678,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -10976,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -11125,156 +11126,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!B$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f>B5</f>
         <v>0</v>
       </c>
       <c r="C10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!C$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" ref="C10:AK10" si="0">C5</f>
         <v>0</v>
       </c>
       <c r="D10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!D$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>2.851903439375358E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!E$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!F$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!G$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!H$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!I$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!J$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>2.3001470420079329E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!K$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>4.8507419772996917E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!L$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!M$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>3.6648621011477336E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!N$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!O$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>1.5283905098620277E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!P$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!Q$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.1051918352584755</v>
       </c>
       <c r="R10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!R$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0.46056987354185763</v>
+        <f t="shared" si="0"/>
+        <v>0.10824858160280046</v>
       </c>
       <c r="S10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!S$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!T$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0.50472047573573309</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.58859588920754202</v>
       </c>
       <c r="X10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!X$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>6.8886743694495669E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AA10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AA$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AB$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AC$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AE$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>6.7245330995679073E-3</v>
       </c>
       <c r="AF10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AF$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.19123916083161416</v>
       </c>
       <c r="AG10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AG$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>8.2165093199600733E-4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AH10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AH$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AI$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AJ$1,'Cost Breakdowns'!$B$293:$B$306)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$293:$D$306,'SoESCaOMCbIC-capital'!AK$1,'Cost Breakdowns'!$B$293:$B$306)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -11283,147 +11284,147 @@
         <v>0</v>
       </c>
       <c r="C11" s="106">
-        <f t="shared" ref="C11:AK11" si="0">C$3</f>
+        <f t="shared" ref="C11:AK11" si="1">C$3</f>
         <v>0</v>
       </c>
       <c r="D11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51764705882352946</v>
       </c>
       <c r="S11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="W11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28235294117647058</v>
       </c>
       <c r="X11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="AE11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7058823529411764E-2</v>
       </c>
       <c r="AF11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AG11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="AH11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK11" s="106">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -11432,147 +11433,147 @@
         <v>0</v>
       </c>
       <c r="C12" s="106">
-        <f t="shared" ref="C12:AK12" si="1">C3</f>
+        <f t="shared" ref="C12:AK12" si="2">C3</f>
         <v>0</v>
       </c>
       <c r="D12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51764705882352946</v>
       </c>
       <c r="S12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="W12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28235294117647058</v>
       </c>
       <c r="X12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="AE12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7058823529411764E-2</v>
       </c>
       <c r="AF12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AG12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="AH12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK12" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -11721,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -11879,147 +11880,147 @@
         <v>0</v>
       </c>
       <c r="C15" s="106">
-        <f t="shared" ref="C15:AK16" si="2">C$3</f>
+        <f t="shared" ref="C15:AK16" si="3">C$3</f>
         <v>0</v>
       </c>
       <c r="D15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51764705882352946</v>
       </c>
       <c r="S15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="W15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28235294117647058</v>
       </c>
       <c r="X15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="AE15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7058823529411764E-2</v>
       </c>
       <c r="AF15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AG15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="AH15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -12028,147 +12029,147 @@
         <v>0</v>
       </c>
       <c r="C16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51764705882352946</v>
       </c>
       <c r="S16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="W16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28235294117647058</v>
       </c>
       <c r="X16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-3</v>
       </c>
       <c r="AE16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7058823529411764E-2</v>
       </c>
       <c r="AF16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AG16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="AH16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK16" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>225</v>
       </c>
@@ -12177,143 +12178,143 @@
         <v>0</v>
       </c>
       <c r="C17" s="106">
-        <f t="shared" ref="C17:AK17" si="3">C9</f>
+        <f t="shared" ref="C17:AK17" si="4">C9</f>
         <v>0</v>
       </c>
       <c r="D17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="S17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="V17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="X17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17999999999999997</v>
       </c>
       <c r="AG17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12323,36 +12324,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AK10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>169</v>
       </c>
@@ -12462,7 +12465,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -12760,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -12909,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -13207,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -13356,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -13505,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -13654,156 +13657,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!B$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f>B5</f>
         <v>0</v>
       </c>
       <c r="C10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!C$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" ref="C10:AK10" si="0">C5</f>
         <v>0</v>
       </c>
       <c r="D10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!D$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!E$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!F$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!G$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!H$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!I$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!J$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!K$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!L$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!M$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!N$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!O$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!P$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!Q$1,'Cost Breakdowns'!$B$308:$B$311)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.19317941441524109</v>
       </c>
       <c r="R10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!R$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!S$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!T$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$308:$B$311)</f>
-        <v>0.58345780433159067</v>
+        <f t="shared" si="0"/>
+        <v>9.6589707207620543E-2</v>
       </c>
       <c r="V10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$308:$B$311)</f>
-        <v>0.31357356235997008</v>
+        <f t="shared" si="0"/>
+        <v>0.21705639003696489</v>
       </c>
       <c r="W10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!X$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AA$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AB$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AC$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$308:$B$311)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.31251599767025628</v>
       </c>
       <c r="AE10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AE$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AF$1,'Cost Breakdowns'!$B$308:$B$311)</f>
-        <v>0.10296863330843913</v>
+        <f t="shared" si="0"/>
+        <v>0.18065849066991718</v>
       </c>
       <c r="AG10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AG$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AH$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AI$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AJ$1,'Cost Breakdowns'!$B$308:$B$311)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$308:$D$311,'SoESCaOMCbIC-capital'!AK$1,'Cost Breakdowns'!$B$308:$B$311)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -13812,147 +13815,147 @@
         <v>0</v>
       </c>
       <c r="C11" s="106">
-        <f t="shared" ref="C11:AK11" si="0">C$3</f>
+        <f t="shared" ref="C11:AK11" si="1">C$3</f>
         <v>0</v>
       </c>
       <c r="D11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0604166666666646E-2</v>
       </c>
       <c r="S11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41820000000000018</v>
       </c>
       <c r="W11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52119583333333308</v>
       </c>
       <c r="AG11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK11" s="106">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -13961,147 +13964,147 @@
         <v>0</v>
       </c>
       <c r="C12" s="106">
-        <f t="shared" ref="C12:AK12" si="1">C3</f>
+        <f t="shared" ref="C12:AK12" si="2">C3</f>
         <v>0</v>
       </c>
       <c r="D12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0604166666666646E-2</v>
       </c>
       <c r="S12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41820000000000018</v>
       </c>
       <c r="W12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52119583333333308</v>
       </c>
       <c r="AG12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK12" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -14250,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -14399,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -14408,147 +14411,147 @@
         <v>0</v>
       </c>
       <c r="C15" s="106">
-        <f t="shared" ref="C15:AK15" si="2">C$3</f>
+        <f t="shared" ref="C15:AK15" si="3">C$3</f>
         <v>0</v>
       </c>
       <c r="D15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0604166666666646E-2</v>
       </c>
       <c r="S15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41820000000000018</v>
       </c>
       <c r="W15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52119583333333308</v>
       </c>
       <c r="AG15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -14557,147 +14560,147 @@
         <v>0</v>
       </c>
       <c r="C16" s="106">
-        <f t="shared" ref="C16:AK16" si="3">C$3</f>
+        <f t="shared" ref="C16:AK16" si="4">C$3</f>
         <v>0</v>
       </c>
       <c r="D16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0604166666666646E-2</v>
       </c>
       <c r="S16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41820000000000018</v>
       </c>
       <c r="W16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52119583333333308</v>
       </c>
       <c r="AG16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK16" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>225</v>
       </c>
@@ -14706,143 +14709,143 @@
         <v>0</v>
       </c>
       <c r="C17" s="106">
-        <f t="shared" ref="C17:AK17" si="4">C9</f>
+        <f t="shared" ref="C17:AK17" si="5">C9</f>
         <v>0</v>
       </c>
       <c r="D17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK17" s="106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14852,36 +14855,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AK10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>169</v>
       </c>
@@ -14991,7 +14996,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -15140,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -15289,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -15438,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -15587,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -15700,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -15813,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -15926,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -16075,156 +16080,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!B$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f>B5</f>
         <v>0</v>
       </c>
       <c r="C10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!C$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" ref="C10:AK10" si="0">C5</f>
         <v>0</v>
       </c>
       <c r="D10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!D$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!E$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!F$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!G$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!H$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!I$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!J$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!K$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!L$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!M$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!N$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!O$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!P$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!Q$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!R$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!S$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!T$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!X$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AA$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AB$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AC$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AE$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AF$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AG$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AH$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AI$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AJ$1,'Cost Breakdowns'!$B$313:$B$313)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK10" s="81">
-        <f>SUMIF('Cost Breakdowns'!$D$313:$D$313,'SoESCaOMCbIC-capital'!AK$1,'Cost Breakdowns'!$B$313:$B$313)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -16233,147 +16238,147 @@
         <v>0</v>
       </c>
       <c r="C11" s="106">
-        <f t="shared" ref="C11:AK11" si="0">C$3</f>
+        <f t="shared" ref="C11:AK11" si="1">C$3</f>
         <v>0</v>
       </c>
       <c r="D11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="L11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84482758620689657</v>
       </c>
       <c r="V11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="W11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK11" s="106">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -16382,147 +16387,147 @@
         <v>0</v>
       </c>
       <c r="C12" s="106">
-        <f t="shared" ref="C12:AK12" si="1">C3</f>
+        <f t="shared" ref="C12:AK12" si="2">C3</f>
         <v>0</v>
       </c>
       <c r="D12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="L12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84482758620689657</v>
       </c>
       <c r="V12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="W12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK12" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>221</v>
       </c>
@@ -16671,7 +16676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>222</v>
       </c>
@@ -16784,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -16793,147 +16798,147 @@
         <v>0</v>
       </c>
       <c r="C15" s="106">
-        <f t="shared" ref="C15:AK16" si="2">C$3</f>
+        <f t="shared" ref="C15:AK16" si="3">C$3</f>
         <v>0</v>
       </c>
       <c r="D15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="L15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84482758620689657</v>
       </c>
       <c r="V15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="W15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK15" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -16942,147 +16947,147 @@
         <v>0</v>
       </c>
       <c r="C16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10344827586206895</v>
       </c>
       <c r="L16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84482758620689657</v>
       </c>
       <c r="V16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1724137931034475E-2</v>
       </c>
       <c r="W16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK16" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>225</v>
       </c>
@@ -17091,143 +17096,143 @@
         <v>0</v>
       </c>
       <c r="C17" s="106">
-        <f t="shared" ref="C17:AK17" si="3">C9</f>
+        <f t="shared" ref="C17:AK17" si="4">C9</f>
         <v>0</v>
       </c>
       <c r="D17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73616786946062651</v>
       </c>
       <c r="L17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26383213053937338</v>
       </c>
       <c r="W17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK17" s="106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
